--- a/src/main/java/com/mre/qa/testdata/USTestdataSF.xlsx
+++ b/src/main/java/com/mre/qa/testdata/USTestdataSF.xlsx
@@ -2133,12 +2133,6 @@
     <t>testnh3@yopmail.com</t>
   </si>
   <si>
-    <t>Testcase Name</t>
-  </si>
-  <si>
-    <t>SF Link</t>
-  </si>
-  <si>
     <t>https://bk4n263z.r.us-east-1.awstrack.me/L0/https:%2F%2Fmnchre-ostra-stg1.pegacloud.net%2Fprweb%2FPRHTTPService%2FMKT%2FRH%2FPOREv2%3FPx=%2509%257Bpr%257DPA4wvXe%252BYP77Olyx26bYNNJYF%252FlSGko6ax5y%252Fqvwaqf3P3cL9UfHHmrgouc57v%252FnjBSOc82GOsT0%250AsGqAo%252Bx7T6m%252BNgCKF9uHDeHCjQU%252BmOWJWwokN%252BYFteBWQnVtERMyEmw11awJ2519cI7YCnMk%252B9rc%250AtbOEd8615E7OWNcPbPpjvfxyNBhE%252BOCjy7bzOFLdwjsez99eXsALHb9bQr6zM%252Faa9JqQWkWzsPce%250AGtYhzkWFP%252BFC4txzpBQk%252BcXyXu2KAjwzNVEzTfa1qvSzw25kEEcsa0ukq%252BQIQ5%252B90bZb%252BGUhlwLI%250AQy3Pvq%252B7tr98gWettI%252For78MfMTWy5lo8nEVUv2OqGDuu4WLCkRk3JmaVc4Xpcfm9D8T1PIRdScu%250AOIUTN%252B4GOmwMB7DY7s4%252BBSkcQ%252B0UPpVF9KjayVLa7LEIr2uiHSaaT85Hav7Veuq%252F9%252BRRR8UeAfyO%250ASmktTg9BSIAu2H2qX9WgIwO6yok5zJtF6REEXoZQ7V2GYhjOW6MGkESC34Bv%252FxiNc3JOm%252BcZNstK%250A7F8S5YYDlSFEzn9q%252BJJqunA0DFUizux7CmxD8DyzgmYR7tyFSGR77eT9KTvsNHizGwnTCNS26KA%252F%250AOSGRNTHIR4h6k7gG8fIkO%252FEhhK9nuqfhZ0g3FDBJ3VvLdPlublVFmzza0jAtxWKB1ZDcXmi3qNt1%250AmmmwcPW6YOg2gs2n8n1Q/1/0100017ae6f26b46-8abb472b-435c-44fb-81b9-074ae75322f5-000000/-XJuJVcw0PeIt7YpD-FPpxlOnEY=228</t>
   </si>
   <si>
@@ -2146,6 +2140,12 @@
   </si>
   <si>
     <t>https://google.com</t>
+  </si>
+  <si>
+    <t>SFLink</t>
+  </si>
+  <si>
+    <t>TestcaseName</t>
   </si>
 </sst>
 </file>
@@ -3002,20 +3002,21 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3086,10 +3087,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3154,7 +3155,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C3" t="s">
         <v>39</v>
@@ -10020,5 +10021,6 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>